--- a/Resultados/Resultados DExPSO con z en rango [2,3].xlsx
+++ b/Resultados/Resultados DExPSO con z en rango [2,3].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Proyecto titulo1\PSO\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC3DA3-5E19-49DE-923F-FFFE152299AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79B4AC9-7262-49EF-B76A-DCB9D69CBF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32835" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> de convergencia</a:t>
+              <a:t> de convergencia DExPSO</a:t>
             </a:r>
             <a:endParaRPr lang="es-CL"/>
           </a:p>
@@ -138,7 +138,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36523600174978127"/>
+          <c:x val="0.28468044619422572"/>
           <c:y val="2.7777777777777776E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1866,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
       <selection activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
